--- a/Book1 1.xlsx
+++ b/Book1 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahn\Desktop\projects\כולמוביל\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TalAb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0339ABE-7290-4B84-B9C4-BD0AE8521AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741C08E-1C71-489F-AFA1-57AC8621E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BD0C579A-840A-4C57-A2A4-D222709C2F4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD0C579A-840A-4C57-A2A4-D222709C2F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -497,67 +497,67 @@
     <t>car link</t>
   </si>
   <si>
-    <t>יונדאי טוסון | מכונית SUV בשביל חוויות משותפות</t>
-  </si>
-  <si>
-    <t>איוניק 5 | חשמלית יוצאת דופן עם טכנולוגיות מתקדמות</t>
-  </si>
-  <si>
-    <t>איוניק 6 | רכב עם חוויה חשמלית מפנקת</t>
-  </si>
-  <si>
-    <t>קונה היברידית | היברידית אנרגטית לרכישה אונליין</t>
-  </si>
-  <si>
-    <t>אלנטרה היברידית | זה הזמן להעז עם רכב היברידי מתוחכם</t>
-  </si>
-  <si>
-    <t>איוניק 5 N | רכב חשמלי חדש שאי אפשר לעמוד בפניו</t>
-  </si>
-  <si>
-    <t>יונדאי וניו | ג'יפון אורבני בעל מראה ייחודי</t>
-  </si>
-  <si>
-    <t>סטאריה | Staria מיני וואן לרכישה Online - יונדאי מבית כלמוביל</t>
-  </si>
-  <si>
-    <t>סונטה היברידית | רכב היברידי חדש במראה דינמי וספורטיבי</t>
-  </si>
-  <si>
-    <t>ORA 03 רכב חשמלי עם סטייל | Ora כלמוביל</t>
-  </si>
-  <si>
-    <t>ORA 07 סדאן מנהלים קופה - יצירת מופת מוטורית | ORA כלמוביל</t>
-  </si>
-  <si>
-    <t>models jaecoo7 - jaecoo-co</t>
-  </si>
-  <si>
-    <t>models jaecoo7-phev - jaecoo-co</t>
-  </si>
-  <si>
-    <t>Mitsubishi Eclipse cross 2024 | אקליפס קרוס | מיצובישי ישראל</t>
-  </si>
-  <si>
-    <t>מיצובישי ASX - רכב SUV מומלץ לשנת 2024 | מיצובישי ישראל</t>
-  </si>
-  <si>
-    <t>רכב 7 מקומות - אאוטלנדר 2024 Mitsubishi Outlander | מיצובישי ישראל</t>
-  </si>
-  <si>
-    <t>רכב סמארט BRABUS #1 - סמארט</t>
-  </si>
-  <si>
-    <t>רכב סמארט Premium #1 - סמארט</t>
-  </si>
-  <si>
-    <t>רכב סמארט Pro+ #1 - סמארט</t>
-  </si>
-  <si>
-    <t>רכב סמארט smart #3 חשמלי - smart</t>
-  </si>
-  <si>
     <t>img url</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/tucson</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/ioniq-5</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/ioniq-6</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/kona-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/elantra-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/ioniq5-n</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/venue</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/staria</t>
+  </si>
+  <si>
+    <t>https://www.hyundaimotors.co.il/models/sonata-hybrid</t>
+  </si>
+  <si>
+    <t>https://ora-israel.co.il/model/ora-03</t>
+  </si>
+  <si>
+    <t>https://ora-israel.co.il/model/ora-07</t>
+  </si>
+  <si>
+    <t>https://jaecoo.co.il/models/jaecoo7/</t>
+  </si>
+  <si>
+    <t>https://jaecoo.co.il/models/jaecoo7-phev/</t>
+  </si>
+  <si>
+    <t>https://www.mitsubishi-israel.co.il/models/outlander/</t>
+  </si>
+  <si>
+    <t>https://www.mitsubishi-israel.co.il/models/eclipse-cross/</t>
+  </si>
+  <si>
+    <t>https://www.mitsubishi-israel.co.il/models/asx/</t>
+  </si>
+  <si>
+    <t>https://smart.co.il/finishes/proplus</t>
+  </si>
+  <si>
+    <t>https://smart.co.il/finishes/brabus</t>
+  </si>
+  <si>
+    <t>https://smart.co.il/finishes/premium</t>
+  </si>
+  <si>
+    <t>https://smart.co.il/models/hash-3</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -607,7 +607,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1026,25 +1026,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171052E1-CE14-464C-B376-E468AEA106A6}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="42" max="42" width="16.26953125" customWidth="1"/>
-    <col min="43" max="43" width="64.90625" customWidth="1"/>
-    <col min="44" max="45" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="129.875" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="42" max="42" width="16.25" customWidth="1"/>
+    <col min="43" max="43" width="64.875" customWidth="1"/>
+    <col min="44" max="45" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,13 +1173,13 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>5.9</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>42</v>
@@ -1302,7 +1303,7 @@
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>5.9</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>52</v>
@@ -1432,7 +1433,7 @@
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>5.9</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>57</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>58</v>
@@ -1562,7 +1563,7 @@
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>61</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>42</v>
@@ -1690,7 +1691,7 @@
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5.4</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>65</v>
@@ -1818,7 +1819,7 @@
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6.2</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>67</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>52</v>
@@ -1948,7 +1949,7 @@
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>70</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>42</v>
@@ -2072,7 +2073,7 @@
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5.9</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>75</v>
@@ -2200,7 +2201,7 @@
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>5.5</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>65</v>
@@ -2328,7 +2329,7 @@
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>5.6</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>80</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>81</v>
@@ -2458,7 +2459,7 @@
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5.6</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>81</v>
@@ -2588,7 +2589,7 @@
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>5.6</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>86</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>81</v>
@@ -2718,7 +2719,7 @@
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5.6</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>88</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>81</v>
@@ -2848,7 +2849,7 @@
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>5.6</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>90</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>81</v>
@@ -2978,7 +2979,7 @@
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>5.6</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>92</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>81</v>
@@ -3108,7 +3109,7 @@
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>5.7</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>95</v>
@@ -3238,7 +3239,7 @@
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>5.7</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>97</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>95</v>
@@ -3368,7 +3369,7 @@
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>5.3</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>42</v>
@@ -3492,7 +3493,7 @@
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>5.3</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>102</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>42</v>
@@ -3616,7 +3617,7 @@
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>5.3</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>104</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>42</v>
@@ -3740,7 +3741,7 @@
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>5.5</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>106</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>107</v>
@@ -3872,7 +3873,7 @@
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>5.5</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>107</v>
@@ -4004,7 +4005,7 @@
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>5.5</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>112</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>42</v>
@@ -4128,7 +4129,7 @@
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>5.4</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>115</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>42</v>
@@ -4252,7 +4253,7 @@
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>5.3</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>117</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>42</v>
@@ -4376,7 +4377,7 @@
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>5.5</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>119</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>52</v>
@@ -4506,7 +4507,7 @@
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>5.5</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>123</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>52</v>
@@ -4636,7 +4637,7 @@
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>5.5</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>125</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>126</v>
@@ -4766,7 +4767,7 @@
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>5.5</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>128</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>42</v>
@@ -4896,7 +4897,7 @@
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>5.5</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>130</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>42</v>
@@ -5026,7 +5027,7 @@
       <c r="AS31" s="7"/>
       <c r="AT31" s="7"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>5.5</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>132</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>52</v>
@@ -5160,37 +5161,6 @@
   <hyperlinks>
     <hyperlink ref="AQ2" r:id="rId1" xr:uid="{307FB225-09EE-47C4-B341-565C311BF4BE}"/>
     <hyperlink ref="AQ24" r:id="rId2" xr:uid="{C54DE330-FFBD-436A-8FBE-DECBD29EF74F}"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://www.hyundaimotors.co.il/models/tucson" xr:uid="{DA2407B6-6FA4-4B22-AA60-A7E7377053E7}"/>
-    <hyperlink ref="G3" r:id="rId4" display="https://www.hyundaimotors.co.il/models/ioniq-5" xr:uid="{32470F8B-B915-4D0C-BA67-9ED1429D3DE2}"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://www.hyundaimotors.co.il/models/ioniq-6" xr:uid="{B2B78174-D11D-4C20-B47C-1D59CC41A475}"/>
-    <hyperlink ref="G5" r:id="rId6" display="https://www.hyundaimotors.co.il/models/kona-hybrid" xr:uid="{CBE5F374-CD13-407E-8BDA-EC15FF38D84E}"/>
-    <hyperlink ref="G6" r:id="rId7" display="https://www.hyundaimotors.co.il/models/elantra-hybrid" xr:uid="{A1A094C8-3DEB-4D31-B3D3-4DEB0BAD4C5E}"/>
-    <hyperlink ref="G7" r:id="rId8" display="https://www.hyundaimotors.co.il/models/ioniq5-n" xr:uid="{0AC0CE39-AC17-4622-9E41-DFD5820524B9}"/>
-    <hyperlink ref="G8" r:id="rId9" display="https://www.hyundaimotors.co.il/models/venue" xr:uid="{79C52EEE-E5C9-44FA-9CD2-203E221BF404}"/>
-    <hyperlink ref="G9" r:id="rId10" display="https://www.hyundaimotors.co.il/models/staria" xr:uid="{A9A174F3-9F0A-40AC-B7A5-24C54E46965B}"/>
-    <hyperlink ref="G10" r:id="rId11" display="https://www.hyundaimotors.co.il/models/sonata-hybrid" xr:uid="{21490A53-7D23-415B-BB91-53236C8C66A9}"/>
-    <hyperlink ref="G11" r:id="rId12" display="https://ora-israel.co.il/model/ora-03" xr:uid="{03212734-1171-4789-B803-9CBD4F69C4E9}"/>
-    <hyperlink ref="G12" r:id="rId13" display="https://ora-israel.co.il/model/ora-03" xr:uid="{CA0EABBA-84B7-4BF1-92CF-5C2F80E5DACB}"/>
-    <hyperlink ref="G13" r:id="rId14" display="https://ora-israel.co.il/model/ora-03" xr:uid="{29545B88-F28D-4E69-ADA0-7D48C9C1C9FD}"/>
-    <hyperlink ref="G14" r:id="rId15" display="https://ora-israel.co.il/model/ora-03" xr:uid="{709C2A11-89B7-4509-806C-30F9820B8EA1}"/>
-    <hyperlink ref="G15" r:id="rId16" display="https://ora-israel.co.il/model/ora-03" xr:uid="{20ABC7A5-B965-4065-BB93-9280897CA5D2}"/>
-    <hyperlink ref="G16" r:id="rId17" display="https://ora-israel.co.il/model/ora-03" xr:uid="{BFEAC870-6CEC-451A-A341-77E313A2B36C}"/>
-    <hyperlink ref="G17" r:id="rId18" display="https://ora-israel.co.il/model/ora-07" xr:uid="{D375E537-F792-41A6-8C40-A66137BFF64A}"/>
-    <hyperlink ref="G18" r:id="rId19" display="https://ora-israel.co.il/model/ora-07" xr:uid="{3206938B-FE47-4768-B986-C5B370386840}"/>
-    <hyperlink ref="G19" r:id="rId20" display="https://jaecoo.co.il/models/jaecoo7/" xr:uid="{C7103077-45BC-4DEE-A69B-565D28D1E73D}"/>
-    <hyperlink ref="G20" r:id="rId21" display="https://jaecoo.co.il/models/jaecoo7/" xr:uid="{B74CD14B-2EF9-4918-9DDC-65CF45BAB14E}"/>
-    <hyperlink ref="G21" r:id="rId22" display="https://jaecoo.co.il/models/jaecoo7/" xr:uid="{2908CA86-BDF9-4815-8FC3-864F639103F0}"/>
-    <hyperlink ref="G22" r:id="rId23" display="https://jaecoo.co.il/models/jaecoo7-phev/" xr:uid="{FA306293-C181-4D7A-BF63-986877CC0D11}"/>
-    <hyperlink ref="G23" r:id="rId24" display="https://jaecoo.co.il/models/jaecoo7-phev/" xr:uid="{33C66F8C-5602-4F57-AFD3-290C3F32629F}"/>
-    <hyperlink ref="G25" r:id="rId25" display="https://www.mitsubishi-israel.co.il/models/eclipse-cross/" xr:uid="{5BAB51D8-44E5-4240-B642-84BF16C6F571}"/>
-    <hyperlink ref="G26" r:id="rId26" display="https://www.mitsubishi-israel.co.il/models/asx/" xr:uid="{F2B04CA8-978D-4FD3-BB69-343E00377B82}"/>
-    <hyperlink ref="G24" r:id="rId27" display="https://www.mitsubishi-israel.co.il/models/outlander/" xr:uid="{8E9C5132-1758-4A26-B1F7-B6C3E78F616D}"/>
-    <hyperlink ref="G28" r:id="rId28" display="https://smart.co.il/finishes/brabus" xr:uid="{A18D79A4-6648-4856-B9AF-80FB81475F9C}"/>
-    <hyperlink ref="G29" r:id="rId29" display="https://smart.co.il/finishes/premium" xr:uid="{BBF3B86B-83A6-494C-91F4-6CEF4039DD70}"/>
-    <hyperlink ref="G27" r:id="rId30" display="https://smart.co.il/finishes/proplus" xr:uid="{E7460AA7-EF8F-473D-A564-7E1D1CA5CFE2}"/>
-    <hyperlink ref="G30" r:id="rId31" display="https://smart.co.il/models/hash-3" xr:uid="{E81FC869-6F9F-4F64-AD14-FF994DCD45DE}"/>
-    <hyperlink ref="G31" r:id="rId32" display="https://smart.co.il/models/hash-3" xr:uid="{1F0FF054-2DE5-4826-8AE3-D7E8C2B3C768}"/>
-    <hyperlink ref="G32" r:id="rId33" display="https://smart.co.il/models/hash-3" xr:uid="{3DB34F7D-F625-4208-9E78-E254AF586536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1 1.xlsx
+++ b/Book1 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TalAb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eladsoftwaresystems-my.sharepoint.com/personal/talab_elad_co_il/Documents/Desktop/Colmobil_POC/colmobil-chatbot-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741C08E-1C71-489F-AFA1-57AC8621E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B741C08E-1C71-489F-AFA1-57AC8621E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ADFB262-5059-4E1A-A292-76188790BEB4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD0C579A-840A-4C57-A2A4-D222709C2F4B}"/>
   </bookViews>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171052E1-CE14-464C-B376-E468AEA106A6}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
     <col min="7" max="7" width="129.875" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="42" max="42" width="16.25" customWidth="1"/>

--- a/Book1 1.xlsx
+++ b/Book1 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eladsoftwaresystems-my.sharepoint.com/personal/talab_elad_co_il/Documents/Desktop/Colmobil_POC/colmobil-chatbot-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B741C08E-1C71-489F-AFA1-57AC8621E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ADFB262-5059-4E1A-A292-76188790BEB4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B741C08E-1C71-489F-AFA1-57AC8621E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB278D0-7CD8-4F50-876E-2EF81EB7C9EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD0C579A-840A-4C57-A2A4-D222709C2F4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD0C579A-840A-4C57-A2A4-D222709C2F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171052E1-CE14-464C-B376-E468AEA106A6}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1040,6 +1040,9 @@
     <col min="6" max="6" width="28.625" customWidth="1"/>
     <col min="7" max="7" width="129.875" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="31" max="31" width="12.875" customWidth="1"/>
+    <col min="32" max="32" width="0.25" customWidth="1"/>
+    <col min="33" max="33" width="27.375" customWidth="1"/>
     <col min="42" max="42" width="16.25" customWidth="1"/>
     <col min="43" max="43" width="64.875" customWidth="1"/>
     <col min="44" max="45" width="22.375" customWidth="1"/>
